--- a/2_Supplemental_Material/Section_4_Methodology/1_Candidate_optimization_rules.xlsx
+++ b/2_Supplemental_Material/Section_4_Methodology/1_Candidate_optimization_rules.xlsx
@@ -22,8 +22,7 @@
 (Validation and Enhance)</t>
   </si>
   <si>
-    <t>Iteration 3
-(Metamodel Evolution Supporting)</t>
+    <t>Support for Metamodel Evolution</t>
   </si>
   <si>
     <t>Rule ID</t>
@@ -1398,7 +1397,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3">
+        <f>countif(D2:D74,"yes")</f>
+        <v>58</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -3420,8 +3422,8 @@
       <c r="C39" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>26</v>
+      <c r="D39" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>48</v>
@@ -3780,8 +3782,8 @@
       <c r="C46" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="21" t="s">
-        <v>26</v>
+      <c r="D46" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>27</v>
